--- a/SampleCRM/src/test/resources/SuiteA.xlsx
+++ b/SampleCRM/src/test/resources/SuiteA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15015" windowHeight="4905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="keyword" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:E14"/>
 </workbook>
 </file>
 
@@ -579,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +741,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
